--- a/data/agg_matrix_maxi.xlsx
+++ b/data/agg_matrix_maxi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ubuntu\M2_EEET\Modelisation_Prospective\Projet_modelisation\MatMat-Trade\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{415E35E9-FD57-46B0-8067-E7599982C62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F2E498-FBE8-4DC0-B81D-45FBBB4FD8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14425,10 +14425,10 @@
   <dimension ref="A1:AY50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AZ1" sqref="AZ1"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
